--- a/REGULAR/CTO/BAYOT, ANISIA.xlsx
+++ b/REGULAR/CTO/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="396">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1199,12 +1199,6 @@
     <t>UT(0-0-19)</t>
   </si>
   <si>
-    <t>10/3,17,24,25/2022</t>
-  </si>
-  <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-14)</t>
   </si>
   <si>
@@ -1229,12 +1223,6 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>3/18,29/2023</t>
-  </si>
-  <si>
     <t>UT(0-1-14)</t>
   </si>
   <si>
@@ -1242,6 +1230,18 @@
   </si>
   <si>
     <t>9/15, 18-22/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/24,25/2022</t>
+  </si>
+  <si>
+    <t>12/06,07/2023</t>
   </si>
 </sst>
 </file>
@@ -1942,8 +1942,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K577" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K577"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K578" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K578"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2272,12 +2272,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K577"/>
+  <dimension ref="A2:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A535" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I544" sqref="I544"/>
+      <pane ySplit="4050" topLeftCell="A529" activePane="bottomLeft"/>
+      <selection activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D544" sqref="D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2444,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.623000000000104</v>
+        <v>67.123000000000104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2454,7 +2454,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>91.45799999999997</v>
+        <v>88.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13699,29 +13699,29 @@
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C502" s="13"/>
-      <c r="D502" s="39">
-        <v>2</v>
-      </c>
+      <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
       <c r="G502" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H502" s="39"/>
+      <c r="H502" s="39">
+        <v>1</v>
+      </c>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="48" t="s">
-        <v>392</v>
+      <c r="K502" s="48">
+        <v>44638</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39">
@@ -13743,7 +13743,7 @@
         <v>44652</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C504" s="13">
         <v>1.25</v>
@@ -13767,7 +13767,7 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39">
@@ -13797,7 +13797,7 @@
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G506" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -13815,7 +13815,7 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39">
@@ -13881,19 +13881,19 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C510" s="13"/>
-      <c r="D510" s="39">
-        <v>1</v>
-      </c>
+      <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
       <c r="G510" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H510" s="39"/>
+      <c r="H510" s="39">
+        <v>1</v>
+      </c>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
       <c r="K510" s="48">
@@ -13903,7 +13903,7 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39">
@@ -13925,21 +13925,21 @@
         <v>44743</v>
       </c>
       <c r="B512" s="20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C512" s="13">
         <v>1.25</v>
       </c>
-      <c r="D512" s="39">
-        <v>1</v>
-      </c>
+      <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H512" s="39"/>
+      <c r="H512" s="39">
+        <v>1</v>
+      </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="48">
@@ -13949,7 +13949,7 @@
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="39">
@@ -14017,7 +14017,7 @@
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39">
@@ -14063,7 +14063,7 @@
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C518" s="13"/>
       <c r="D518" s="39">
@@ -14085,7 +14085,7 @@
         <v>44835</v>
       </c>
       <c r="B519" s="20" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C519" s="13">
         <v>1.25</v>
@@ -14097,21 +14097,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H519" s="39"/>
+      <c r="H519" s="39">
+        <v>1</v>
+      </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="20" t="s">
-        <v>381</v>
+      <c r="K519" s="48">
+        <v>44851</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>2</v>
       </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
@@ -14122,46 +14124,46 @@
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
+      <c r="K520" s="20" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C521" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D521" s="39"/>
+        <v>381</v>
+      </c>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H521" s="39">
-        <v>1</v>
-      </c>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="48">
-        <v>44872</v>
-      </c>
+      <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40"/>
+      <c r="A522" s="40">
+        <v>44866</v>
+      </c>
       <c r="B522" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39">
         <v>1</v>
@@ -14169,85 +14171,85 @@
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="48">
-        <v>44894</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>380</v>
+        <v>47</v>
       </c>
       <c r="C523" s="13"/>
-      <c r="D523" s="39">
-        <v>0.04</v>
-      </c>
+      <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
       <c r="G523" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39"/>
+      <c r="H523" s="39">
+        <v>1</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="48"/>
+      <c r="K523" s="48">
+        <v>44894</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C524" s="13">
-        <v>1.25</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C524" s="13"/>
       <c r="D524" s="39">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="K524" s="48"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="40"/>
+      <c r="A525" s="40">
+        <v>44896</v>
+      </c>
       <c r="B525" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C525" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D525" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="48">
-        <v>44924</v>
+      <c r="K525" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
@@ -14258,7 +14260,9 @@
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
+      <c r="K526" s="48">
+        <v>44924</v>
+      </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
@@ -14655,7 +14659,7 @@
         <v>45170</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
@@ -14673,66 +14677,81 @@
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45200</v>
       </c>
-      <c r="B545" s="20"/>
-      <c r="C545" s="13"/>
+      <c r="B545" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C545" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G545" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20"/>
+      <c r="K545" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45231</v>
       </c>
-      <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="B546" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H546" s="39"/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H546" s="39">
+        <v>1</v>
+      </c>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="48">
+        <v>45240</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B547" s="20"/>
+      <c r="A547" s="40"/>
+      <c r="B547" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C547" s="13"/>
-      <c r="D547" s="39"/>
+      <c r="D547" s="39">
+        <v>2</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G547" s="13"/>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="48" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14750,7 +14769,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14768,7 +14787,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14786,7 +14805,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14804,7 +14823,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14822,7 +14841,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14840,7 +14859,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -14858,7 +14877,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14876,7 +14895,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14894,7 +14913,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14912,7 +14931,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14930,7 +14949,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14948,7 +14967,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -14966,7 +14985,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -14984,7 +15003,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15002,7 +15021,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15020,7 +15039,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15038,7 +15057,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15056,7 +15075,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15074,7 +15093,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15092,7 +15111,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15110,7 +15129,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15128,7 +15147,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15146,7 +15165,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15163,7 +15182,9 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="40">
+        <v>45992</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -15243,20 +15264,36 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="41"/>
-      <c r="B577" s="15"/>
-      <c r="C577" s="42"/>
-      <c r="D577" s="43"/>
+      <c r="A577" s="40"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
       <c r="E577" s="9"/>
-      <c r="F577" s="15"/>
+      <c r="F577" s="20"/>
       <c r="G577" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H577" s="43"/>
+      <c r="H577" s="39"/>
       <c r="I577" s="9"/>
-      <c r="J577" s="12"/>
-      <c r="K577" s="15"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="41"/>
+      <c r="B578" s="15"/>
+      <c r="C578" s="42"/>
+      <c r="D578" s="43"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="15"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="43"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="12"/>
+      <c r="K578" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
